--- a/public/files/template/inventory/kibb.xlsx
+++ b/public/files/template/inventory/kibb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmas\public\files\template\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\newepuskesmas\public\files\template\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>:</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>[b.kode]</t>
+  </si>
+  <si>
+    <t>Tanggal Export</t>
+  </si>
+  <si>
+    <t>[b.tanggal_export]</t>
   </si>
 </sst>
 </file>
@@ -898,7 +904,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,10 +1167,14 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
       <c r="H11" s="2"/>
@@ -1596,11 +1606,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="A16:O16"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="B2:R2"/>
@@ -1615,6 +1620,11 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
